--- a/results/I3_N5_M2_T45_C150_DepLowerLeft_s0_P1_res.xlsx
+++ b/results/I3_N5_M2_T45_C150_DepLowerLeft_s0_P1_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1863.655469025119</v>
+        <v>1330.593917626344</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01199984550476074</v>
+        <v>0.003000020980834961</v>
       </c>
     </row>
     <row r="5">
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1.316296393601083e-05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>42.70229772432432</v>
+        <v>24.77074632555534</v>
       </c>
     </row>
     <row r="7">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>1353.660000000006</v>
+        <v>872</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>467.47</v>
+        <v>434</v>
       </c>
     </row>
   </sheetData>
@@ -689,7 +689,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -722,7 +722,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -733,7 +733,7 @@
         <v>4</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -802,7 +802,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -835,7 +835,7 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -857,7 +857,7 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -907,7 +907,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>33.88634790002131</v>
       </c>
     </row>
     <row r="4">
@@ -915,7 +915,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>33.18449368032031</v>
+        <v>18.18449368032027</v>
       </c>
     </row>
     <row r="5">
@@ -923,7 +923,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>34.35124120223184</v>
+        <v>39.81299701176103</v>
       </c>
     </row>
     <row r="6">
@@ -939,7 +939,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>11.81550631967969</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8">
@@ -947,7 +947,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>44.08963008478587</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9">
@@ -955,7 +955,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>39.53824419047081</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1074,7 +1074,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -1088,7 +1088,7 @@
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8" t="n">
         <v>2</v>
@@ -1102,7 +1102,7 @@
         <v>3</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
@@ -1116,7 +1116,7 @@
         <v>3</v>
       </c>
       <c r="B10" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
@@ -1130,7 +1130,7 @@
         <v>3</v>
       </c>
       <c r="B11" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C11" t="n">
         <v>5</v>
@@ -1238,7 +1238,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>152.2550000000006</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8">
@@ -1249,7 +1249,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>151.9700000000007</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9">
@@ -1260,7 +1260,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>156.1</v>
+        <v>188</v>
       </c>
     </row>
     <row r="10">
@@ -1271,7 +1271,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>158.7300000000006</v>
+        <v>189</v>
       </c>
     </row>
     <row r="11">
@@ -1282,7 +1282,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>156.0700000000006</v>
+        <v>178</v>
       </c>
     </row>
     <row r="12">
@@ -1293,7 +1293,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>172.7800000000006</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
@@ -1304,7 +1304,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>183.4250000000006</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14">
@@ -1315,7 +1315,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>182.3350000000006</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15">
@@ -1326,7 +1326,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>191.2700000000006</v>
+        <v>120</v>
       </c>
     </row>
     <row r="16">
@@ -1337,7 +1337,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>186.8900000000006</v>
+        <v>111</v>
       </c>
     </row>
     <row r="17">
@@ -1348,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>251.8</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18">
@@ -1359,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>244.485</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19">
@@ -1370,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>256.17</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20">
@@ -1381,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>248.825</v>
+        <v>240</v>
       </c>
     </row>
     <row r="21">
@@ -1392,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>258.85</v>
+        <v>232</v>
       </c>
     </row>
     <row r="22">
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>84.08</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23">
@@ -1414,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>75.84</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24">
@@ -1425,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>80.26000000000001</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25">
@@ -1436,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81999999999999</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26">
@@ -1447,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>80.22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27">
@@ -1458,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>61.37999999999978</v>
+        <v>55</v>
       </c>
     </row>
     <row r="28">
@@ -1469,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>61.35999999999978</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
@@ -1480,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>65.61999999999978</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30">
@@ -1491,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>66.05999999999977</v>
+        <v>61</v>
       </c>
     </row>
     <row r="31">
@@ -1502,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>64.25999999999978</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32">
@@ -1513,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>172.7800000000006</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33">
@@ -1524,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>183.4250000000006</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34">
@@ -1535,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>182.3350000000006</v>
+        <v>242</v>
       </c>
     </row>
     <row r="35">
@@ -1546,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>191.2700000000006</v>
+        <v>240</v>
       </c>
     </row>
     <row r="36">
@@ -1557,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>186.8900000000006</v>
+        <v>232</v>
       </c>
     </row>
     <row r="37">
@@ -1568,7 +1568,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>251.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1579,7 +1579,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>244.485</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1590,7 +1590,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>256.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1601,7 +1601,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>248.825</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -1612,7 +1612,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>258.85</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1659,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>22.78000000000057</v>
+        <v>86</v>
       </c>
     </row>
     <row r="3">
@@ -1670,7 +1670,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>33.42500000000058</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4">
@@ -1681,7 +1681,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>32.33500000000058</v>
+        <v>92</v>
       </c>
     </row>
     <row r="5">
@@ -1692,7 +1692,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>41.27000000000058</v>
+        <v>90</v>
       </c>
     </row>
     <row r="6">
@@ -1703,7 +1703,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>36.89000000000058</v>
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -1714,7 +1714,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>101.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1725,7 +1725,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>94.48500000000001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1736,7 +1736,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>106.17</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1747,7 +1747,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>98.82499999999999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1758,7 +1758,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>108.85</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1860,7 +1860,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8">
@@ -1871,7 +1871,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1882,7 +1882,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1904,7 +1904,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1970,7 +1970,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>24.435</v>
+        <v>24</v>
       </c>
     </row>
     <row r="18">
@@ -1981,7 +1981,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>21.08</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19">
@@ -1992,7 +1992,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>26.385</v>
+        <v>21</v>
       </c>
     </row>
     <row r="20">
@@ -2003,7 +2003,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>21.925</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
@@ -2014,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>20.27</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
@@ -2025,7 +2025,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>15.84</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23">
@@ -2036,7 +2036,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>25.985</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24">
@@ -2047,7 +2047,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>25.86</v>
+        <v>16</v>
       </c>
     </row>
     <row r="25">
@@ -2058,7 +2058,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>25.8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="26">
@@ -2069,7 +2069,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>26.155</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -2083,7 +2083,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2165,7 +2165,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -2176,7 +2176,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>2</v>
@@ -2187,7 +2187,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="n">
         <v>3</v>
@@ -2198,7 +2198,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -2209,67 +2209,12 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B11" t="n">
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>3</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>3</v>
-      </c>
-      <c r="B13" t="n">
-        <v>2</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>3</v>
-      </c>
-      <c r="B14" t="n">
-        <v>3</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>3</v>
-      </c>
-      <c r="B15" t="n">
-        <v>4</v>
-      </c>
-      <c r="C15" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>3</v>
-      </c>
-      <c r="B16" t="n">
-        <v>5</v>
-      </c>
-      <c r="C16" t="n">
         <v>1</v>
       </c>
     </row>
